--- a/Packet/PacketData/Shop.xlsx
+++ b/Packet/PacketData/Shop.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="アイテム購入要求" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="アイテム購入結果" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="アイテム売却要求" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="アイテム売却結果" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="ショップ終了" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="37">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -91,6 +92,12 @@
     <t xml:space="preserve">無効なショップＩＤ</t>
   </si>
   <si>
+    <t xml:space="preserve">NotSelling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">売られていない</t>
+  </si>
+  <si>
     <t xml:space="preserve">NotEnougthGold</t>
   </si>
   <si>
@@ -122,6 +129,12 @@
   </si>
   <si>
     <t xml:space="preserve">アイテムを持っていない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketExitShop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExitShop</t>
   </si>
 </sst>
 </file>
@@ -234,7 +247,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="A4:D7 A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -326,10 +339,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A4:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -407,16 +420,30 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="0" t="s">
+      <c r="B8" s="0" t="s">
         <v>26</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -438,7 +465,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A4:D7 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -453,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -461,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -532,8 +559,8 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A4:D7 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -548,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -556,7 +583,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -603,10 +630,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -614,13 +641,66 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A4:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Shop.xlsx
+++ b/Packet/PacketData/Shop.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="アイテム購入要求" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="39">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t xml:space="preserve">売られていない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InvalidItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">無効なアイテム</t>
   </si>
   <si>
     <t xml:space="preserve">NotEnougthGold</t>
@@ -247,7 +253,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="A4:D7 A10"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -339,10 +345,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A4:D7"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -434,16 +440,30 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="0" t="s">
+      <c r="B9" s="0" t="s">
         <v>28</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -465,7 +485,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A4:D7 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -480,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -488,7 +508,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -557,10 +577,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A4:D7 B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -575,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -583,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -630,24 +650,38 @@
         <v>17</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="0" t="s">
+      <c r="B8" s="0" t="s">
         <v>28</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -668,8 +702,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A4:D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -684,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -692,7 +726,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
